--- a/biology/Botanique/Quercus_eduardii/Quercus_eduardii.xlsx
+++ b/biology/Botanique/Quercus_eduardii/Quercus_eduardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus eduardii est une espèce d'arbres du sous-genre Quercus et de la section Lobatae. L'espèce est présente au Mexique.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Tropicos, ce taxon est invalide[2] et lui préfère Quercus oligodonta Seemen ex Loes. 1900.
-Cette espèce a été créée initialement par William Trelease en 1924 sous le taxon Quercus eduardi (avec un seul « i »)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Tropicos, ce taxon est invalide et lui préfère Quercus oligodonta Seemen ex Loes. 1900.
+Cette espèce a été créée initialement par William Trelease en 1924 sous le taxon Quercus eduardi (avec un seul « i »).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) William Trelease, « The American oaks », Memoirs of the National Academy of Sciences, Washington, NAS, vol. 20,‎ 1924, p. 1-676 (ISSN 0885-4637, OCLC 1759015, DOI 10.5962/BHL.TITLE.142965, lire en ligne)</t>
         </is>
